--- a/biology/Médecine/Fondation_Heydar-Aliyev/Fondation_Heydar-Aliyev.xlsx
+++ b/biology/Médecine/Fondation_Heydar-Aliyev/Fondation_Heydar-Aliyev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fondation Heydar Aliyev (en azéri : Heydər Əliyev Fondu ou HAF) est une importante fondation caritative privée située à Bakou en Azerbaïdjan.
 </t>
@@ -511,12 +523,14 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fondation Heydar Aliyev a été créée pour célébrer la mémoire de l'ancien président de la république d'Azerbaïdjan Heydar Aliyev, qui après la chute de l'Union soviétique, fut le bâtisseur de l'État indépendant d'Azerbaïdjan, mais aussi pour promouvoir la richesse du patrimoine moral et culturel du pays, y compris sa diversité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fondation Heydar Aliyev a été créée pour célébrer la mémoire de l'ancien président de la république d'Azerbaïdjan Heydar Aliyev, qui après la chute de l'Union soviétique, fut le bâtisseur de l'État indépendant d'Azerbaïdjan, mais aussi pour promouvoir la richesse du patrimoine moral et culturel du pays, y compris sa diversité.
 La Fondation Heydar Aliyev prend une part active dans l'organisation de festivals musicaux en Azerbaïdjan, notamment le Festival de musique de Gabala, Le Monde du mugham et le Festival international de musique Uzeyir Hajibeyov.
 Mehriban Aliyeva, belle-fille de Heydar Aliyev et Première dame d'Azerbaïdjan, est la présidente de la fondation depuis sa création. Elle représente officiellement la fondation, la dirige et est chargée de choisir les objectifs prioritaires et les programmes mis en place. Sa fille Leyla Aliyeva, est la vice-présidente.
-Aujourd'hui, la Fondation Heydar Aliyev est la plus importante organisation non gouvernementale et non commerciale d'Azerbaïdjan[1].
+Aujourd'hui, la Fondation Heydar Aliyev est la plus importante organisation non gouvernementale et non commerciale d'Azerbaïdjan.
 </t>
         </is>
       </c>
@@ -545,11 +559,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la Fondation a financé la restauration de la cathédrale de Strasbourg et de certaines installations à Versailles[2]. En juin 2012, avec la participation de la présidente de la Fondation Mehriban Aliyeva et du cardinal Gianfranco Ravasi, un accord a été signé au Vatican sur l'aide du Fonds pour la restauration des « catacombes romaines »[3].
-Restauration de monuments historiques et construction d'équipements culturels
-L'une des activités de la Fondation Heydar Aliyev est la restauration de monuments historiques  nationale et internationale et la construction de nouveaux équipements culturels. En 2016, elle a participé à la restauration de 50 monuments religieux, historiques et culturels en Azerbaïdjan. Dans le même temps, la Fondation a participé à la restauration de plus de 40 monuments religieux et culturels dans différents pays et villes du monde[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la Fondation a financé la restauration de la cathédrale de Strasbourg et de certaines installations à Versailles. En juin 2012, avec la participation de la présidente de la Fondation Mehriban Aliyeva et du cardinal Gianfranco Ravasi, un accord a été signé au Vatican sur l'aide du Fonds pour la restauration des « catacombes romaines ».
 </t>
         </is>
       </c>
@@ -575,13 +589,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Restauration de monuments historiques et construction d'équipements culturels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'une des activités de la Fondation Heydar Aliyev est la restauration de monuments historiques  nationale et internationale et la construction de nouveaux équipements culturels. En 2016, elle a participé à la restauration de 50 monuments religieux, historiques et culturels en Azerbaïdjan. Dans le même temps, la Fondation a participé à la restauration de plus de 40 monuments religieux et culturels dans différents pays et villes du monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fondation_Heydar-Aliyev</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fondation_Heydar-Aliyev</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Instrument d'influence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fondation Heydar Aliyev sert directement à la stratégie d'influence de l'État azéri à l'étranger, nommée diplomatie du caviar. Elle finance ainsi en France l'Association des Amis de l'Azerbaïdjan (AAA) qui accueille des élus français favorables au régime[5]. « Pour promouvoir l’Azerbaïdjan, l’AAA n’hésite pas à inviter des parlementaires à des courses de Formule 1 à Bakou », écrit Le Monde, précisant que les sénateurs Éric Doligé et Alain Vasselle se sont ainsi rendus en Azerbaïdjan en 2016, suivis l'année suivante de Rachida Dati et Alain Houpert, directement invités par le pouvoir azéri[5] — l'organisation de compétitions de formule 1 est régulièrement utilisée par l'Azerbaïdjan dans sa stratégie d'influence[6]. La Fondation Heydar Aliyev, quant à elle, finance directement à grands frais la restauration d'édifices religieux chrétiens[5], mais aussi le département des arts islamiques du musée du Louvre (à hauteur d'un million d'euros) ou le château de Versailles[6].
-Selon Le Point, Mehriban Aliyeva, à l'aide des fonds de la Fondation Heydar Aliyev, organise de somptueuses réceptions et dîners à Paris ; en 2014, les personnalités du monde de la culture Gérard Depardieu, Alain Delon et Patrick Bruel y sont ainsi aperçus tandis que les élus Claude Goasguen, Rachida Dati, Jean-François Mancel et Aymeri de Montesquiou partagent la table de la Première dame d'Azerbaïdjan[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fondation Heydar Aliyev sert directement à la stratégie d'influence de l'État azéri à l'étranger, nommée diplomatie du caviar. Elle finance ainsi en France l'Association des Amis de l'Azerbaïdjan (AAA) qui accueille des élus français favorables au régime. « Pour promouvoir l’Azerbaïdjan, l’AAA n’hésite pas à inviter des parlementaires à des courses de Formule 1 à Bakou », écrit Le Monde, précisant que les sénateurs Éric Doligé et Alain Vasselle se sont ainsi rendus en Azerbaïdjan en 2016, suivis l'année suivante de Rachida Dati et Alain Houpert, directement invités par le pouvoir azéri — l'organisation de compétitions de formule 1 est régulièrement utilisée par l'Azerbaïdjan dans sa stratégie d'influence. La Fondation Heydar Aliyev, quant à elle, finance directement à grands frais la restauration d'édifices religieux chrétiens, mais aussi le département des arts islamiques du musée du Louvre (à hauteur d'un million d'euros) ou le château de Versailles.
+Selon Le Point, Mehriban Aliyeva, à l'aide des fonds de la Fondation Heydar Aliyev, organise de somptueuses réceptions et dîners à Paris ; en 2014, les personnalités du monde de la culture Gérard Depardieu, Alain Delon et Patrick Bruel y sont ainsi aperçus tandis que les élus Claude Goasguen, Rachida Dati, Jean-François Mancel et Aymeri de Montesquiou partagent la table de la Première dame d'Azerbaïdjan.
 </t>
         </is>
       </c>
